--- a/python10/interface_test/test_data/test_data.xlsx
+++ b/python10/interface_test/test_data/test_data.xlsx
@@ -3,11 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15940" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15945" windowWidth="28800" xWindow="0" yWindow="465"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tel" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -15,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t xml:space="preserve">id </t>
   </si>
@@ -68,58 +70,55 @@
     <t>不输入昵称</t>
   </si>
   <si>
-    <t>{"mobilephone":"13433333388","pwd":"123456","regname":""}</t>
-  </si>
-  <si>
-    <t>20110</t>
+    <t>{"mobilephone":"${tel_1}","pwd":"123456","regname":""}</t>
+  </si>
+  <si>
+    <t>不输入手机号</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"123456","regname":"test_zy"}</t>
+  </si>
+  <si>
+    <t>20103</t>
+  </si>
+  <si>
+    <t>不输入密码</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${tel_2}","pwd":"","regname":""}</t>
+  </si>
+  <si>
+    <t>输入不合法手机号</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"1343333344","pwd":"123456","regname":"test_zy"}</t>
+  </si>
+  <si>
+    <t>20109</t>
+  </si>
+  <si>
+    <t>输入不合法密码</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${tel_3}","pwd":"23456","regname":"test_zy"}</t>
+  </si>
+  <si>
+    <t>20108</t>
+  </si>
+  <si>
+    <t>输入不合法用户名</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${tel_4}","pwd":"123456","regname":"YQEWGQ"}</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>不输入手机号</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":"123456","regname":"test_zy"}</t>
-  </si>
-  <si>
-    <t>20103</t>
-  </si>
-  <si>
-    <t>不输入密码</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13433333343","pwd":"","regname":""}</t>
-  </si>
-  <si>
-    <t>输入不合法手机号</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"1343333344","pwd":"123456","regname":"test_zy"}</t>
-  </si>
-  <si>
-    <t>20109</t>
-  </si>
-  <si>
-    <t>输入不合法密码</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"1343333345","pwd":"23456","regname":"test_zy"}</t>
-  </si>
-  <si>
-    <t>20108</t>
-  </si>
-  <si>
-    <t>输入不合法用户名</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13433333346","pwd":"123456","regname":"YQEWGQ"}</t>
-  </si>
-  <si>
     <t>输入已注册手机号</t>
   </si>
   <si>
-    <t>{"mobilephone":"1343333347","pwd":"23456","regname":"QWEQEQWE"}</t>
+    <t>{"mobilephone":"${tel}","pwd":"23456","regname":"QWEQEQWE"}</t>
   </si>
   <si>
     <t>login</t>
@@ -131,6 +130,9 @@
     <t>http://47.107.168.87:8080/futureloan/mvc/api/member/login</t>
   </si>
   <si>
+    <t>{"mobilephone": "${tel}", "pwd": "123456", "regname": "test_zy"}</t>
+  </si>
+  <si>
     <t>{"mobilephone": "13433333341", "pwd": "123456", "regname": "test_zy"}</t>
   </si>
   <si>
@@ -144,6 +146,9 @@
   </si>
   <si>
     <t>{"mobilephone": "13433333341", "amount": "12"}</t>
+  </si>
+  <si>
+    <t>no_reg_tel</t>
   </si>
 </sst>
 </file>
@@ -174,12 +179,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <family val="3"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
       <sz val="12"/>
     </font>
     <font>
@@ -189,6 +188,11 @@
       <color theme="10"/>
       <sz val="12"/>
       <u val="single"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,7 +216,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -235,17 +239,17 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -519,25 +523,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleSheetLayoutView="100">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" zoomScaleSheetLayoutView="100">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="9"/>
-    <col customWidth="1" max="2" min="2" style="2" width="10.1640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="10.6640625"/>
-    <col customWidth="1" max="4" min="4" style="2" width="10.6640625"/>
+    <col customWidth="1" max="2" min="2" style="2" width="10.125"/>
+    <col customWidth="1" max="3" min="3" style="3" width="10.625"/>
+    <col customWidth="1" max="4" min="4" style="2" width="10.625"/>
     <col customWidth="1" max="5" min="5" style="2" width="48"/>
-    <col customWidth="1" max="6" min="6" style="5" width="43.6640625"/>
+    <col customWidth="1" max="6" min="6" style="5" width="43.625"/>
     <col customWidth="1" max="7" min="7" style="5" width="29.5"/>
     <col customWidth="1" max="8" min="8" style="2" width="31.5"/>
-    <col customWidth="1" max="9" min="9" style="2" width="22.6640625"/>
-    <col customWidth="1" max="23" min="10" style="2" width="9"/>
-    <col customWidth="1" max="16384" min="24" style="2" width="9"/>
+    <col customWidth="1" max="9" min="9" style="2" width="22.625"/>
+    <col customWidth="1" max="24" min="10" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="25" style="2" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -569,7 +573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="2" s="7" spans="1:9">
+    <row customHeight="1" ht="39.95" r="2" s="7" spans="1:9">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -598,7 +602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="3" s="7" spans="1:9">
+    <row customHeight="1" ht="39.95" r="3" s="7" spans="1:9">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -621,13 +625,13 @@
         <v>10001</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="4" s="7" spans="1:9">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="39.95" r="4" s="7" spans="1:9">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -635,7 +639,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -644,19 +648,19 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>20103</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="5" s="7" spans="1:9">
+    <row customHeight="1" ht="39.95" r="5" s="7" spans="1:9">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -664,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -673,19 +677,19 @@
         <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>20103</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="6" s="7" spans="1:9">
+    <row customHeight="1" ht="39.95" r="6" s="7" spans="1:9">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -693,7 +697,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -702,19 +706,19 @@
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>20109</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="7" s="7" spans="1:9">
+    <row customHeight="1" ht="39.95" r="7" s="7" spans="1:9">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -722,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -731,19 +735,19 @@
         <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>20108</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="8" s="7" spans="1:9">
+    <row customHeight="1" ht="39.95" r="8" s="7" spans="1:9">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -751,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -760,19 +764,19 @@
         <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>20111</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="9" s="7" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="39.95" r="9" s="7" spans="1:9">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -780,7 +784,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -789,36 +793,36 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>20110</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="10" s="7" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="39.95" r="10" s="7" spans="1:9">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>10001</v>
@@ -827,35 +831,6 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="11" s="7" spans="1:9">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>10001</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -864,7 +839,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E9" r:id="rId2"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E10" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.51" header="0.51" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
@@ -877,20 +851,287 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleSheetLayoutView="100">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="17.1640625"/>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="2" width="10.125"/>
+    <col customWidth="1" max="3" min="3" style="3" width="10.625"/>
+    <col customWidth="1" max="4" min="4" style="2" width="10.625"/>
+    <col customWidth="1" max="5" min="5" style="2" width="48"/>
+    <col customWidth="1" max="6" min="6" style="5" width="43.625"/>
+    <col customWidth="1" max="7" min="7" style="5" width="29.5"/>
+    <col customWidth="1" max="8" min="8" style="2" width="31.5"/>
+    <col customWidth="1" max="9" min="9" style="2" width="22.625"/>
+    <col customWidth="1" max="24" min="10" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="25" style="2" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="6" t="n">
-        <v>13636367939</v>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="39.95" r="2" s="7" spans="1:9">
+      <c r="A2" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="39.95" r="3" s="7" spans="1:9">
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="39.95" r="4" s="7" spans="1:9">
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="39.95" r="5" s="7" spans="1:9">
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="39.95" r="6" s="7" spans="1:9">
+      <c r="E6" s="8" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="39.95" r="7" s="7" spans="1:9">
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="39.95" r="8" s="7" spans="1:9">
+      <c r="E8" s="8" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="39.95" r="9" s="7" spans="1:9">
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="39.95" r="10" s="7" spans="1:9">
+      <c r="E10" s="10" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="39.95" r="11" s="7" spans="1:9">
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.51" header="0.51" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0" zoomScaleSheetLayoutView="100">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="2" width="10.125"/>
+    <col customWidth="1" max="3" min="3" style="3" width="10.625"/>
+    <col customWidth="1" max="4" min="4" style="2" width="10.625"/>
+    <col customWidth="1" max="5" min="5" style="2" width="48"/>
+    <col customWidth="1" max="6" min="6" style="5" width="43.625"/>
+    <col customWidth="1" max="7" min="7" style="5" width="29.5"/>
+    <col customWidth="1" max="8" min="8" style="2" width="31.5"/>
+    <col customWidth="1" max="9" min="9" style="2" width="22.625"/>
+    <col customWidth="1" max="24" min="10" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="25" style="2" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="39.95" r="2" s="7" spans="1:9">
+      <c r="A2" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="39.95" r="3" s="7" spans="1:9">
+      <c r="A3" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.51" header="0.51" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScaleSheetLayoutView="100">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="7" width="15.625"/>
+    <col customWidth="1" max="2" min="2" style="7" width="17.125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6" t="n">
+        <v>13636367970</v>
       </c>
     </row>
   </sheetData>

--- a/python10/interface_test/test_data/test_data.xlsx
+++ b/python10/interface_test/test_data/test_data.xlsx
@@ -1131,7 +1131,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="6" t="n">
-        <v>13636367970</v>
+        <v>13636367975</v>
       </c>
     </row>
   </sheetData>
